--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_13.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_13.xlsx
@@ -122,10 +122,10 @@
     <t>CODIGO ESTABLECIMIENTO</t>
   </si>
   <si>
-    <t>FECHA</t>
-  </si>
-  <si>
-    <t>DOCUMENTO GD</t>
+    <t>FECHA DE RETIRO</t>
+  </si>
+  <si>
+    <t>NUM GUIA DESPACHO</t>
   </si>
   <si>
     <t>TIPO RESIDUO</t>
@@ -134,22 +134,22 @@
     <t>TIPO ESPECIFICO</t>
   </si>
   <si>
-    <t>EMPRESA</t>
-  </si>
-  <si>
-    <t>ler</t>
-  </si>
-  <si>
-    <t>rut establecimiento receptor</t>
-  </si>
-  <si>
-    <t>código establecimiento receptor</t>
-  </si>
-  <si>
-    <t>código tratamiento receptor</t>
-  </si>
-  <si>
-    <t>cantidad</t>
+    <t>CÓDIGO LER</t>
+  </si>
+  <si>
+    <t>NOMBRE GESTOR</t>
+  </si>
+  <si>
+    <t>RUT ESTABLECIMIENTO RECEPTOR</t>
+  </si>
+  <si>
+    <t>CÓDIGO ESTABLECIMIENTO RECEPTOR</t>
+  </si>
+  <si>
+    <t>CÓDIGO TRATAMIENTO RECEPTOR</t>
+  </si>
+  <si>
+    <t>CANTIDAD (KG)</t>
   </si>
 </sst>
 </file>
@@ -852,10 +852,10 @@
       <formula1>Info!$A$2:$A$11</formula1>
     </dataValidation>
     <dataValidation type="date" operator="lessThanOrEqual" showErrorMessage="1" errorStyle="error" errorTitle="Fecha Inválida" error="No debe superar la fecha de hoy" sqref="B10:B51">
-      <formula1>45034.168322199075</formula1>
+      <formula1>45043.052675231476</formula1>
     </dataValidation>
     <dataValidation type="date" operator="lessThanOrEqual" showErrorMessage="1" errorStyle="error" errorTitle="Fecha Inválida" error="No debe superar la fecha de hoy" sqref="B2:B51">
-      <formula1>45034.168322199075</formula1>
+      <formula1>45043.05267521991</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="D10:D51">
       <formula1>Info!$B$2:$B$4</formula1>

--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_13.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_13.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
   <si>
     <t>TIPO TRATAMIENTO</t>
   </si>
@@ -41,16 +41,16 @@
     <t>PapelCartón</t>
   </si>
   <si>
-    <t>Cartón: cajas</t>
-  </si>
-  <si>
-    <t>Aluminio: latas, rejas IBC</t>
-  </si>
-  <si>
-    <t>Rígido: bidones, tambores, botellas, IBC, tinetas</t>
-  </si>
-  <si>
-    <t>Pallet</t>
+    <t>Papel</t>
+  </si>
+  <si>
+    <t>Envase Aluminio</t>
+  </si>
+  <si>
+    <t>Plástico Film Embalaje</t>
+  </si>
+  <si>
+    <t>Caja de Madera</t>
   </si>
   <si>
     <t>38 - Quinta Región - Los Aromos sadasadsaasdsa</t>
@@ -59,16 +59,16 @@
     <t>Valorización Energética</t>
   </si>
   <si>
-    <t>Cartón: esquineros, conos</t>
-  </si>
-  <si>
-    <t>Fierro: hojalata, tambores, zunchos, tinetas, tanques</t>
-  </si>
-  <si>
-    <t>Rígido: pallets, bins</t>
-  </si>
-  <si>
-    <t>Cajas, esquineros, carretes</t>
+    <t>Papel Compuesto (cemento)</t>
+  </si>
+  <si>
+    <t>Malla o Reja (IBC)</t>
+  </si>
+  <si>
+    <t>Plástico Envases Rígidos (Incl. Tapas)</t>
+  </si>
+  <si>
+    <t>Pallet de Madera</t>
   </si>
   <si>
     <t>44 - Región de Coquimbo - sadassa</t>
@@ -77,39 +77,42 @@
     <t>Disposición Final en RS</t>
   </si>
   <si>
-    <t>Papel: bolsas, papel kraft, manuales</t>
-  </si>
-  <si>
-    <t>Flexibles rafia: sacos, maxisacos</t>
+    <t>Caja Cartón</t>
+  </si>
+  <si>
+    <t>Envase Hojalata</t>
+  </si>
+  <si>
+    <t>Plástico Sacos o Maxisacos</t>
   </si>
   <si>
     <t>51 - Región de Atacama - ejemplo</t>
   </si>
   <si>
-    <t>Papel compuesto: bolsas de cemento, linear</t>
-  </si>
-  <si>
-    <t>Flexibles láminas: films de embalaje, bolsas, burbujas, contraible, flexitank</t>
+    <t>Papel/Cartón Otro</t>
+  </si>
+  <si>
+    <t>Metal Otro</t>
+  </si>
+  <si>
+    <t>Plástico EPS (Poliestireno Expandido)</t>
   </si>
   <si>
     <t>110 - Región de Coquimbo - Nombre</t>
   </si>
   <si>
-    <t>Flexibles: zunchos</t>
+    <t>Plástico Zuncho</t>
   </si>
   <si>
     <t>116 - Región de Atacama - Juan</t>
   </si>
   <si>
-    <t>Poliestireno: cajas, protecciones, bandejas</t>
+    <t>Plástico Otro</t>
   </si>
   <si>
     <t>130 - Región de Arica y Parinacota - asdasd</t>
   </si>
   <si>
-    <t>Plásticos compuestos: multicapas</t>
-  </si>
-  <si>
     <t>131 - Región de Arica y Parinacota - Nombre</t>
   </si>
   <si>
@@ -140,7 +143,7 @@
     <t>NOMBRE GESTOR</t>
   </si>
   <si>
-    <t>RUT ESTABLECIMIENTO RECEPTOR</t>
+    <t>RUT GESTOR</t>
   </si>
   <si>
     <t>CÓDIGO ESTABLECIMIENTO RECEPTOR</t>
@@ -229,8 +232,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" name="Metal" displayName="Metal" ref="E1:E3" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="E1:E3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" name="Metal" displayName="Metal" ref="E1:E5" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="E1:E5">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -241,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" name="Plástico" displayName="Plástico" ref="F1:F8" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="F1:F8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" name="Plástico" displayName="Plástico" ref="F1:F7" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="F1:F7">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
@@ -674,61 +677,64 @@
       <c r="D4" t="s">
         <v>21</v>
       </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -757,40 +763,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25"/>
@@ -852,10 +858,10 @@
       <formula1>Info!$A$2:$A$11</formula1>
     </dataValidation>
     <dataValidation type="date" operator="lessThanOrEqual" showErrorMessage="1" errorStyle="error" errorTitle="Fecha Inválida" error="No debe superar la fecha de hoy" sqref="B10:B51">
-      <formula1>45043.052675231476</formula1>
+      <formula1>45043.77146550926</formula1>
     </dataValidation>
     <dataValidation type="date" operator="lessThanOrEqual" showErrorMessage="1" errorStyle="error" errorTitle="Fecha Inválida" error="No debe superar la fecha de hoy" sqref="B2:B51">
-      <formula1>45043.05267521991</formula1>
+      <formula1>45043.77146550926</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="D10:D51">
       <formula1>Info!$B$2:$B$4</formula1>

--- a/desarrollo/rigk-sg-back/files/templates/_carga_masiva_13.xlsx
+++ b/desarrollo/rigk-sg-back/files/templates/_carga_masiva_13.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411EDF3F-3924-4E2A-B1C9-DC5A8096D0D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="601" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Info" state="veryHidden" r:id="rId4"/>
-    <sheet sheetId="2" name="Carga Masiva" state="visible" r:id="rId5"/>
+    <sheet name="Info" sheetId="1" state="veryHidden" r:id="rId1"/>
+    <sheet name="Carga Masiva" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="47">
   <si>
     <t>TIPO TRATAMIENTO</t>
   </si>
@@ -158,14 +162,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -188,8 +192,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -208,60 +215,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="Residuos" displayName="Residuos" ref="C1:C5" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="C1:C5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Residuos" displayName="Residuos" ref="C1:C5">
+  <autoFilter ref="C1:C5" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" name="Residuos" totalsRowLabel="Total"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Residuos" totalsRowLabel="Total"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" name="PapelCartón" displayName="PapelCartón" ref="D1:D5" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="D1:D5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="PapelCartón" displayName="PapelCartón" ref="D1:D5">
+  <autoFilter ref="D1:D5" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" name="PapelCarton" totalsRowLabel="Total"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PapelCarton" totalsRowLabel="Total"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" name="Metal" displayName="Metal" ref="E1:E5" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="E1:E5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Metal" displayName="Metal" ref="E1:E5">
+  <autoFilter ref="E1:E5" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" name="Metal" totalsRowLabel="Total"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Metal" totalsRowLabel="Total"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" name="Plástico" displayName="Plástico" ref="F1:F7" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="F1:F7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Plástico" displayName="Plástico" ref="F1:F7">
+  <autoFilter ref="F1:F7" xr:uid="{00000000-0009-0000-0100-000004000000}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" name="Plástico" totalsRowLabel="Total"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Plástico" totalsRowLabel="Total"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" name="Madera" displayName="Madera" ref="G1:G3" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="G1:G3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Madera" displayName="Madera" ref="G1:G3">
+  <autoFilter ref="G1:G3" xr:uid="{00000000-0009-0000-0100-000005000000}">
     <filterColumn colId="0" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="1">
-    <tableColumn id="1" name="Madera" totalsRowLabel="Total"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Madera" totalsRowLabel="Total"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -588,9 +595,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G11"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="25" customWidth="1"/>
   </cols>
@@ -664,7 +674,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -684,7 +694,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -701,7 +711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -709,7 +719,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -717,29 +727,29 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <tableParts count="5">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
@@ -751,13 +761,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L51"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.17" customWidth="1"/>
-    <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="8" width="14.83" customWidth="1"/>
+    <col min="1" max="1" width="38.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="14.85546875" customWidth="1"/>
     <col min="9" max="11" width="26" customWidth="1"/>
   </cols>
   <sheetData>
@@ -777,7 +794,7 @@
       <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="G1" t="s">
@@ -799,234 +816,54 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <dataValidations count="58">
-    <dataValidation type="list" showErrorMessage="1" error="aaaa" sqref="A10:A51">
-      <formula1>Info!$A$2:$A$11</formula1>
+  <dataValidations count="2">
+    <dataValidation type="date" operator="lessThanOrEqual" showErrorMessage="1" errorTitle="Fecha Inválida" error="No debe superar la fecha de hoy" sqref="B2:B51" xr:uid="{00000000-0002-0000-0100-000002000000}">
+      <formula1>45043.7714655091</formula1>
     </dataValidation>
-    <dataValidation type="list" showErrorMessage="1" error="aaaa" sqref="A2:A51">
-      <formula1>Info!$A$2:$A$11</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="lessThanOrEqual" showErrorMessage="1" errorStyle="error" errorTitle="Fecha Inválida" error="No debe superar la fecha de hoy" sqref="B10:B51">
-      <formula1>45043.77146550926</formula1>
-    </dataValidation>
-    <dataValidation type="date" operator="lessThanOrEqual" showErrorMessage="1" errorStyle="error" errorTitle="Fecha Inválida" error="No debe superar la fecha de hoy" sqref="B2:B51">
-      <formula1>45043.77146550926</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="D10:D51">
-      <formula1>Info!$B$2:$B$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="D2:D51">
-      <formula1>Info!$B$2:$B$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="E10:E51">
-      <formula1>Info!$C$2:$C$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="E2:E51">
-      <formula1>Info!$C$2:$C$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F10">
-      <formula1>=INDIRECT(E10)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F11">
-      <formula1>=INDIRECT(E11)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F12">
-      <formula1>=INDIRECT(E12)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F13">
-      <formula1>=INDIRECT(E13)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F14">
-      <formula1>=INDIRECT(E14)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F15">
-      <formula1>=INDIRECT(E15)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F16">
-      <formula1>=INDIRECT(E16)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F17">
-      <formula1>=INDIRECT(E17)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F18">
-      <formula1>=INDIRECT(E18)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F19">
-      <formula1>=INDIRECT(E19)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F2">
-      <formula1>=INDIRECT(E2)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F20">
-      <formula1>=INDIRECT(E20)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F21">
-      <formula1>=INDIRECT(E21)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F22">
-      <formula1>=INDIRECT(E22)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F23">
-      <formula1>=INDIRECT(E23)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F24">
-      <formula1>=INDIRECT(E24)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F25">
-      <formula1>=INDIRECT(E25)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F26">
-      <formula1>=INDIRECT(E26)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F27">
-      <formula1>=INDIRECT(E27)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F28">
-      <formula1>=INDIRECT(E28)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F29">
-      <formula1>=INDIRECT(E29)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F3">
-      <formula1>=INDIRECT(E3)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F30">
-      <formula1>=INDIRECT(E30)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F31">
-      <formula1>=INDIRECT(E31)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F32">
-      <formula1>=INDIRECT(E32)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F33">
-      <formula1>=INDIRECT(E33)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F34">
-      <formula1>=INDIRECT(E34)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F35">
-      <formula1>=INDIRECT(E35)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F36">
-      <formula1>=INDIRECT(E36)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F37">
-      <formula1>=INDIRECT(E37)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F38">
-      <formula1>=INDIRECT(E38)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F39">
-      <formula1>=INDIRECT(E39)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F4">
-      <formula1>=INDIRECT(E4)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F40">
-      <formula1>=INDIRECT(E40)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F41">
-      <formula1>=INDIRECT(E41)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F42">
-      <formula1>=INDIRECT(E42)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F43">
-      <formula1>=INDIRECT(E43)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F44">
-      <formula1>=INDIRECT(E44)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F45">
-      <formula1>=INDIRECT(E45)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F46">
-      <formula1>=INDIRECT(E46)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F47">
-      <formula1>=INDIRECT(E47)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F48">
-      <formula1>=INDIRECT(E48)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F49">
-      <formula1>=INDIRECT(E49)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F5">
-      <formula1>=INDIRECT(E5)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F50">
-      <formula1>=INDIRECT(E50)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F51">
-      <formula1>=INDIRECT(E51)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F6">
-      <formula1>=INDIRECT(E6)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F7">
-      <formula1>=INDIRECT(E7)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F8">
-      <formula1>=INDIRECT(E8)</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="F9">
-      <formula1>=INDIRECT(E9)</formula1>
+    <dataValidation type="list" sqref="F2:F51" xr:uid="{00000000-0002-0000-0100-000008000000}">
+      <formula1>INDIRECT(E2)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" showErrorMessage="1" error="aaaa" xr:uid="{00000000-0002-0000-0100-000000000000}">
+          <x14:formula1>
+            <xm:f>Info!$A$2:$A$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A51</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000004000000}">
+          <x14:formula1>
+            <xm:f>Info!$B$2:$B$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D51</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" xr:uid="{00000000-0002-0000-0100-000006000000}">
+          <x14:formula1>
+            <xm:f>Info!$C$2:$C$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E51</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>